--- a/ECHO_FLU_Vaccitech_PBMC_scrnaseq_coded_qc_report_WT.xlsx
+++ b/ECHO_FLU_Vaccitech_PBMC_scrnaseq_coded_qc_report_WT.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\williamthistle\Documents\GitHub\Influenza\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B0BCFA-29B6-48EB-8347-7E962C37C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ECHO_FLU_Vaccitech_PBMC_scrnase" sheetId="1" r:id="rId4"/>
+    <sheet name="ECHO_FLU_Vaccitech_PBMC_scrnase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -181,15 +190,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -200,42 +210,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -425,20 +438,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,141 +503,141 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>17246.0</v>
+        <v>4043</v>
       </c>
       <c r="E2" s="1">
-        <v>32133.0</v>
+        <v>136754</v>
       </c>
       <c r="F2" s="1">
-        <v>1475.0</v>
+        <v>1117</v>
       </c>
       <c r="G2" s="1">
-        <v>4701.0</v>
+        <v>3103</v>
       </c>
       <c r="H2" s="2">
-        <v>0.439</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="I2" s="2">
-        <v>0.895</v>
+        <v>0.748</v>
       </c>
       <c r="J2" s="1">
-        <v>90.978</v>
+        <v>93.140500000000003</v>
       </c>
       <c r="K2" s="1">
-        <v>7.682829</v>
+        <v>0.222607</v>
       </c>
       <c r="L2" s="1">
-        <v>0.009340201</v>
+        <v>0.32737318100000001</v>
       </c>
       <c r="M2" s="1">
-        <v>0.738278603</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
-        <v>4786.0</v>
+        <v>6075</v>
       </c>
       <c r="E3" s="1">
-        <v>125398.0</v>
+        <v>100164</v>
       </c>
       <c r="F3" s="1">
-        <v>1298.0</v>
+        <v>1692</v>
       </c>
       <c r="G3" s="1">
-        <v>4182.0</v>
+        <v>6519</v>
       </c>
       <c r="H3" s="2">
-        <v>0.239</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="I3" s="2">
-        <v>0.764</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="J3" s="1">
-        <v>86.5329</v>
+        <v>94.417599999999993</v>
       </c>
       <c r="K3" s="1">
-        <v>26.1726717</v>
+        <v>2.0630470000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0.003996912</v>
+        <v>1.0934790000000001E-3</v>
       </c>
       <c r="M3" s="1">
-        <v>0.7162928</v>
+        <v>0.67255322699999998</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>15131.0</v>
+        <v>18247</v>
       </c>
       <c r="E4" s="1">
-        <v>37820.0</v>
+        <v>33310</v>
       </c>
       <c r="F4" s="1">
-        <v>1170.0</v>
+        <v>1066</v>
       </c>
       <c r="G4" s="1">
-        <v>3588.0</v>
+        <v>5144</v>
       </c>
       <c r="H4" s="2">
-        <v>0.265</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="I4" s="2">
-        <v>0.86</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="J4" s="1">
-        <v>87.4406</v>
+        <v>94.520600000000002</v>
       </c>
       <c r="K4" s="1">
-        <v>9.890997</v>
+        <v>3.0092219999999998</v>
       </c>
       <c r="L4" s="1">
-        <v>0.819891188</v>
+        <v>1.9700439999999998E-3</v>
       </c>
       <c r="M4" s="1">
-        <v>8.07428E-4</v>
+        <v>0.63371622699999997</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -625,130 +646,130 @@
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>17755.0</v>
+        <v>9192</v>
       </c>
       <c r="E5" s="1">
-        <v>37412.0</v>
+        <v>58357</v>
       </c>
       <c r="F5" s="1">
-        <v>1157.0</v>
+        <v>1201</v>
       </c>
       <c r="G5" s="1">
-        <v>3863.0</v>
+        <v>3795</v>
       </c>
       <c r="H5" s="2">
-        <v>0.416</v>
+        <v>0.501</v>
       </c>
       <c r="I5" s="2">
-        <v>0.881</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>91.2174</v>
+        <v>93.117800000000003</v>
       </c>
       <c r="K5" s="1">
-        <v>10.53451</v>
+        <v>12.812719</v>
       </c>
       <c r="L5" s="1">
-        <v>7.83869E-4</v>
+        <v>0.71145657900000003</v>
       </c>
       <c r="M5" s="1">
-        <v>0.654096754</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>22105</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20927</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1337</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4220</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="J6" s="1">
+        <v>95.616299999999995</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4.8950370000000003</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.6039839999999999E-3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.77817548599999997</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8685.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>59843.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1320.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3717.0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.786</v>
-      </c>
-      <c r="J6" s="1">
-        <v>89.8824</v>
-      </c>
-      <c r="K6" s="1">
-        <v>23.242725</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.741022713</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>15424.0</v>
+        <v>21270</v>
       </c>
       <c r="E7" s="1">
-        <v>42341.0</v>
+        <v>29889</v>
       </c>
       <c r="F7" s="1">
-        <v>1125.0</v>
+        <v>1093</v>
       </c>
       <c r="G7" s="1">
-        <v>3947.0</v>
+        <v>4266</v>
       </c>
       <c r="H7" s="2">
-        <v>0.315</v>
+        <v>0.495</v>
       </c>
       <c r="I7" s="2">
-        <v>0.837</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>86.615</v>
+        <v>91.921199999999999</v>
       </c>
       <c r="K7" s="1">
-        <v>3.317629</v>
+        <v>4.1335839999999999</v>
       </c>
       <c r="L7" s="1">
-        <v>0.75811328</v>
+        <v>8.6117150000000007E-3</v>
       </c>
       <c r="M7" s="1">
-        <v>0.078720063</v>
+        <v>0.57336028100000003</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -757,86 +778,86 @@
         <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>5915.0</v>
+        <v>18461</v>
       </c>
       <c r="E8" s="1">
-        <v>122104.0</v>
+        <v>39070</v>
       </c>
       <c r="F8" s="1">
-        <v>1578.0</v>
+        <v>1398</v>
       </c>
       <c r="G8" s="1">
-        <v>5130.0</v>
+        <v>4603</v>
       </c>
       <c r="H8" s="2">
-        <v>0.433</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="I8" s="2">
-        <v>0.805</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>87.0308</v>
+        <v>90.648899999999998</v>
       </c>
       <c r="K8" s="1">
-        <v>22.921825</v>
+        <v>4.2983140000000004</v>
       </c>
       <c r="L8" s="1">
-        <v>1.58167E-4</v>
+        <v>0.68577042200000005</v>
       </c>
       <c r="M8" s="1">
-        <v>0.681641316</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1">
-        <v>4043.0</v>
+        <v>23360</v>
       </c>
       <c r="E9" s="1">
-        <v>136754.0</v>
+        <v>25766</v>
       </c>
       <c r="F9" s="1">
-        <v>1117.0</v>
+        <v>1240</v>
       </c>
       <c r="G9" s="1">
-        <v>3103.0</v>
+        <v>4126</v>
       </c>
       <c r="H9" s="2">
-        <v>0.669</v>
+        <v>0.47</v>
       </c>
       <c r="I9" s="2">
-        <v>0.748</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="J9" s="1">
-        <v>93.1405</v>
+        <v>89.9114</v>
       </c>
       <c r="K9" s="1">
-        <v>0.222607</v>
+        <v>3.2792669999999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0.327373181</v>
+        <v>0.69543655900000001</v>
       </c>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>1.76305E-4</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -845,42 +866,42 @@
         <v>16</v>
       </c>
       <c r="D10" s="1">
-        <v>18247.0</v>
+        <v>16724</v>
       </c>
       <c r="E10" s="1">
-        <v>33310.0</v>
+        <v>31564</v>
       </c>
       <c r="F10" s="1">
-        <v>1066.0</v>
+        <v>1269</v>
       </c>
       <c r="G10" s="1">
-        <v>5144.0</v>
+        <v>4120</v>
       </c>
       <c r="H10" s="2">
-        <v>0.514</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="I10" s="2">
-        <v>0.932</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>94.5206</v>
+        <v>91.017499999999998</v>
       </c>
       <c r="K10" s="1">
-        <v>3.009222</v>
+        <v>4.4114089999999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0.001970044</v>
+        <v>0.68166074200000004</v>
       </c>
       <c r="M10" s="1">
-        <v>0.633716227</v>
+        <v>1.8129100000000001E-4</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -889,42 +910,42 @@
         <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>12957.0</v>
+        <v>17117</v>
       </c>
       <c r="E11" s="1">
-        <v>43624.0</v>
+        <v>34984</v>
       </c>
       <c r="F11" s="1">
-        <v>1596.0</v>
+        <v>1384</v>
       </c>
       <c r="G11" s="1">
-        <v>5836.0</v>
+        <v>5410</v>
       </c>
       <c r="H11" s="2">
-        <v>0.455</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="I11" s="2">
-        <v>0.873</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>91.7069</v>
+        <v>90.6404</v>
       </c>
       <c r="K11" s="1">
-        <v>10.180224</v>
+        <v>10.324021</v>
       </c>
       <c r="L11" s="1">
-        <v>0.774004844</v>
+        <v>7.1506900000000003E-4</v>
       </c>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>0.71682857700000002</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -933,86 +954,86 @@
         <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>17117.0</v>
+        <v>11519</v>
       </c>
       <c r="E12" s="1">
-        <v>34984.0</v>
+        <v>54294</v>
       </c>
       <c r="F12" s="1">
-        <v>1384.0</v>
+        <v>1623</v>
       </c>
       <c r="G12" s="1">
-        <v>5410.0</v>
+        <v>6382</v>
       </c>
       <c r="H12" s="2">
-        <v>0.464</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="I12" s="2">
-        <v>0.911</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>90.6404</v>
+        <v>91.052400000000006</v>
       </c>
       <c r="K12" s="1">
-        <v>10.324021</v>
+        <v>9.0123680000000004</v>
       </c>
       <c r="L12" s="1">
-        <v>7.15069E-4</v>
+        <v>0.76064900199999996</v>
       </c>
       <c r="M12" s="1">
-        <v>0.716828577</v>
+        <v>4.54711E-4</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>18121</v>
+      </c>
+      <c r="E13" s="1">
+        <v>34928</v>
+      </c>
+      <c r="F13" s="1">
+        <v>997</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4364</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J13" s="1">
+        <v>92.5428</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6.0373140000000003</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.9338E-4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.58332751000000005</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10455.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>60930.0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1059.0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3495.0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.316</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.896</v>
-      </c>
-      <c r="J13" s="1">
-        <v>89.3564</v>
-      </c>
-      <c r="K13" s="1">
-        <v>4.301391</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.903929151</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2.93945E-4</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -1021,42 +1042,42 @@
         <v>16</v>
       </c>
       <c r="D14" s="1">
-        <v>6075.0</v>
+        <v>12957</v>
       </c>
       <c r="E14" s="1">
-        <v>100164.0</v>
+        <v>43624</v>
       </c>
       <c r="F14" s="1">
-        <v>1692.0</v>
+        <v>1596</v>
       </c>
       <c r="G14" s="1">
-        <v>6519.0</v>
+        <v>5836</v>
       </c>
       <c r="H14" s="2">
-        <v>0.591</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="I14" s="2">
-        <v>0.792</v>
+        <v>0.873</v>
       </c>
       <c r="J14" s="1">
-        <v>94.4176</v>
+        <v>91.706900000000005</v>
       </c>
       <c r="K14" s="1">
-        <v>2.063047</v>
+        <v>10.180224000000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0.001093479</v>
+        <v>0.77400484400000003</v>
       </c>
       <c r="M14" s="1">
-        <v>0.672553227</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -1065,42 +1086,42 @@
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>22105.0</v>
+        <v>9262</v>
       </c>
       <c r="E15" s="1">
-        <v>20927.0</v>
+        <v>48561</v>
       </c>
       <c r="F15" s="1">
-        <v>1337.0</v>
+        <v>1517</v>
       </c>
       <c r="G15" s="1">
-        <v>4220.0</v>
+        <v>5872</v>
       </c>
       <c r="H15" s="2">
-        <v>0.495</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="I15" s="2">
-        <v>0.929</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>95.6163</v>
+        <v>92.536799999999999</v>
       </c>
       <c r="K15" s="1">
-        <v>4.895037</v>
+        <v>10.684683</v>
       </c>
       <c r="L15" s="1">
-        <v>0.001603984</v>
+        <v>1.219396E-3</v>
       </c>
       <c r="M15" s="1">
-        <v>0.778175486</v>
+        <v>0.73634608800000001</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1109,86 +1130,86 @@
         <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>11811.0</v>
+        <v>25341</v>
       </c>
       <c r="E16" s="1">
-        <v>78738.0</v>
+        <v>35746</v>
       </c>
       <c r="F16" s="1">
-        <v>1604.0</v>
+        <v>1459</v>
       </c>
       <c r="G16" s="1">
-        <v>6140.0</v>
+        <v>4934</v>
       </c>
       <c r="H16" s="2">
-        <v>0.435</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="I16" s="2">
-        <v>0.9</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="J16" s="1">
-        <v>89.2885</v>
+        <v>88.8703</v>
       </c>
       <c r="K16" s="1">
-        <v>7.767919</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.599638114</v>
+        <v>6.2695160000000003</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3.18E-5</v>
       </c>
       <c r="M16" s="1">
-        <v>5.21921E-4</v>
+        <v>0.73936493800000003</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="1">
-        <v>13014.0</v>
+        <v>17246</v>
       </c>
       <c r="E17" s="1">
-        <v>47972.0</v>
+        <v>32133</v>
       </c>
       <c r="F17" s="1">
-        <v>661.0</v>
+        <v>1475</v>
       </c>
       <c r="G17" s="1">
-        <v>1474.0</v>
+        <v>4701</v>
       </c>
       <c r="H17" s="2">
-        <v>0.384</v>
+        <v>0.439</v>
       </c>
       <c r="I17" s="2">
-        <v>0.704</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>85.5409</v>
+        <v>90.977999999999994</v>
       </c>
       <c r="K17" s="1">
-        <v>18.690525</v>
+        <v>7.6828289999999999</v>
       </c>
       <c r="L17" s="1">
-        <v>5.05005E-4</v>
+        <v>9.3402009999999994E-3</v>
       </c>
       <c r="M17" s="1">
-        <v>0.496299309</v>
+        <v>0.73827860300000003</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -1197,42 +1218,42 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>18461.0</v>
+        <v>11811</v>
       </c>
       <c r="E18" s="1">
-        <v>39070.0</v>
+        <v>78738</v>
       </c>
       <c r="F18" s="1">
-        <v>1398.0</v>
+        <v>1604</v>
       </c>
       <c r="G18" s="1">
-        <v>4603.0</v>
+        <v>6140</v>
       </c>
       <c r="H18" s="2">
-        <v>0.479</v>
+        <v>0.435</v>
       </c>
       <c r="I18" s="2">
-        <v>0.893</v>
+        <v>0.9</v>
       </c>
       <c r="J18" s="1">
-        <v>90.6489</v>
+        <v>89.288499999999999</v>
       </c>
       <c r="K18" s="1">
-        <v>4.298314</v>
+        <v>7.767919</v>
       </c>
       <c r="L18" s="1">
-        <v>0.685770422</v>
+        <v>0.599638114</v>
       </c>
       <c r="M18" s="1">
-        <v>0.0</v>
+        <v>5.2192099999999995E-4</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -1241,174 +1262,174 @@
         <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>9192.0</v>
+        <v>5915</v>
       </c>
       <c r="E19" s="1">
-        <v>58357.0</v>
+        <v>122104</v>
       </c>
       <c r="F19" s="1">
-        <v>1201.0</v>
+        <v>1578</v>
       </c>
       <c r="G19" s="1">
-        <v>3795.0</v>
+        <v>5130</v>
       </c>
       <c r="H19" s="2">
-        <v>0.501</v>
+        <v>0.433</v>
       </c>
       <c r="I19" s="2">
-        <v>0.869</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="J19" s="1">
-        <v>93.1178</v>
+        <v>87.030799999999999</v>
       </c>
       <c r="K19" s="1">
-        <v>12.812719</v>
+        <v>22.921824999999998</v>
       </c>
       <c r="L19" s="1">
-        <v>0.711456579</v>
+        <v>1.5816699999999999E-4</v>
       </c>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>0.681641316</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
-        <v>13893.0</v>
+        <v>17755</v>
       </c>
       <c r="E20" s="1">
-        <v>41278.0</v>
+        <v>37412</v>
       </c>
       <c r="F20" s="1">
-        <v>1245.0</v>
+        <v>1157</v>
       </c>
       <c r="G20" s="1">
-        <v>4016.0</v>
+        <v>3863</v>
       </c>
       <c r="H20" s="2">
-        <v>0.289</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="I20" s="2">
-        <v>0.879</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>89.0325</v>
+        <v>91.217399999999998</v>
       </c>
       <c r="K20" s="1">
-        <v>7.973665</v>
+        <v>10.534509999999999</v>
       </c>
       <c r="L20" s="1">
-        <v>0.799011041</v>
+        <v>7.8386899999999997E-4</v>
       </c>
       <c r="M20" s="1">
-        <v>2.19459E-4</v>
+        <v>0.654096754</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1">
-        <v>16724.0</v>
+        <v>6207</v>
       </c>
       <c r="E21" s="1">
-        <v>31564.0</v>
+        <v>70850</v>
       </c>
       <c r="F21" s="1">
-        <v>1269.0</v>
+        <v>1556</v>
       </c>
       <c r="G21" s="1">
-        <v>4120.0</v>
+        <v>5159</v>
       </c>
       <c r="H21" s="2">
-        <v>0.469</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="I21" s="2">
-        <v>0.888</v>
+        <v>0.82</v>
       </c>
       <c r="J21" s="1">
-        <v>91.0175</v>
+        <v>88.369299999999996</v>
       </c>
       <c r="K21" s="1">
-        <v>4.411409</v>
+        <v>16.043959999999998</v>
       </c>
       <c r="L21" s="1">
-        <v>0.681660742</v>
+        <v>0.8373294</v>
       </c>
       <c r="M21" s="1">
-        <v>1.81291E-4</v>
+        <v>5.0718499999999995E-4</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>11283.0</v>
+        <v>13014</v>
       </c>
       <c r="E22" s="1">
-        <v>58150.0</v>
+        <v>47972</v>
       </c>
       <c r="F22" s="1">
-        <v>1213.0</v>
+        <v>661</v>
       </c>
       <c r="G22" s="1">
-        <v>3516.0</v>
+        <v>1474</v>
       </c>
       <c r="H22" s="2">
-        <v>0.281</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="I22" s="2">
-        <v>0.847</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="J22" s="1">
-        <v>83.8479</v>
+        <v>85.540899999999993</v>
       </c>
       <c r="K22" s="1">
-        <v>3.889687</v>
+        <v>18.690525000000001</v>
       </c>
       <c r="L22" s="1">
-        <v>0.007432858</v>
+        <v>5.0500499999999999E-4</v>
       </c>
       <c r="M22" s="1">
-        <v>0.716762487</v>
+        <v>0.49629930900000002</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
@@ -1417,86 +1438,86 @@
         <v>7</v>
       </c>
       <c r="D23" s="1">
-        <v>5701.0</v>
+        <v>8685</v>
       </c>
       <c r="E23" s="1">
-        <v>73464.0</v>
+        <v>59843</v>
       </c>
       <c r="F23" s="1">
-        <v>870.0</v>
+        <v>1320</v>
       </c>
       <c r="G23" s="1">
-        <v>2241.0</v>
+        <v>3717</v>
       </c>
       <c r="H23" s="2">
-        <v>0.337</v>
+        <v>0.37</v>
       </c>
       <c r="I23" s="2">
-        <v>0.632</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="J23" s="1">
-        <v>91.163</v>
+        <v>89.882400000000004</v>
       </c>
       <c r="K23" s="1">
-        <v>38.2751938</v>
+        <v>23.242725</v>
       </c>
       <c r="L23" s="1">
-        <v>0.021255138</v>
+        <v>0.741022713</v>
       </c>
       <c r="M23" s="1">
-        <v>0.6399225</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1">
-        <v>18121.0</v>
+        <v>17773</v>
       </c>
       <c r="E24" s="1">
-        <v>34928.0</v>
+        <v>34264</v>
       </c>
       <c r="F24" s="1">
-        <v>997.0</v>
+        <v>1184</v>
       </c>
       <c r="G24" s="1">
-        <v>4364.0</v>
+        <v>3827</v>
       </c>
       <c r="H24" s="2">
-        <v>0.458</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="I24" s="2">
-        <v>0.925</v>
+        <v>0.87</v>
       </c>
       <c r="J24" s="1">
-        <v>92.5428</v>
+        <v>91.042400000000001</v>
       </c>
       <c r="K24" s="1">
-        <v>6.037314</v>
+        <v>5.4736599999999997</v>
       </c>
       <c r="L24" s="1">
-        <v>1.9338E-4</v>
+        <v>1.0452129999999999E-3</v>
       </c>
       <c r="M24" s="1">
-        <v>0.58332751</v>
+        <v>0.64632613400000005</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
@@ -1505,86 +1526,86 @@
         <v>7</v>
       </c>
       <c r="D25" s="1">
-        <v>16639.0</v>
+        <v>8686</v>
       </c>
       <c r="E25" s="1">
-        <v>39002.0</v>
+        <v>72746</v>
       </c>
       <c r="F25" s="1">
-        <v>1177.0</v>
+        <v>1399</v>
       </c>
       <c r="G25" s="1">
-        <v>3540.0</v>
+        <v>4884</v>
       </c>
       <c r="H25" s="2">
-        <v>0.276</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="I25" s="2">
-        <v>0.882</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="J25" s="1">
-        <v>88.3489</v>
+        <v>88.256399999999999</v>
       </c>
       <c r="K25" s="1">
-        <v>4.317757</v>
+        <v>4.4599549999999999</v>
       </c>
       <c r="L25" s="1">
-        <v>0.001003533</v>
+        <v>6.2564000000000001E-4</v>
       </c>
       <c r="M25" s="1">
-        <v>0.750404984</v>
+        <v>0.65586182400000004</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
-        <v>25341.0</v>
+        <v>5701</v>
       </c>
       <c r="E26" s="1">
-        <v>35746.0</v>
+        <v>73464</v>
       </c>
       <c r="F26" s="1">
-        <v>1459.0</v>
+        <v>870</v>
       </c>
       <c r="G26" s="1">
-        <v>4934.0</v>
+        <v>2241</v>
       </c>
       <c r="H26" s="2">
-        <v>0.447</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="I26" s="2">
-        <v>0.916</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>88.8703</v>
+        <v>91.162999999999997</v>
       </c>
       <c r="K26" s="1">
-        <v>6.269516</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3.18E-5</v>
+        <v>38.275193799999997</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2.1255138E-2</v>
       </c>
       <c r="M26" s="1">
-        <v>0.739364938</v>
+        <v>0.63992249999999995</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>19</v>
@@ -1593,42 +1614,42 @@
         <v>7</v>
       </c>
       <c r="D27" s="1">
-        <v>8686.0</v>
+        <v>11771</v>
       </c>
       <c r="E27" s="1">
-        <v>72746.0</v>
+        <v>62224</v>
       </c>
       <c r="F27" s="1">
-        <v>1399.0</v>
+        <v>1366</v>
       </c>
       <c r="G27" s="1">
-        <v>4884.0</v>
+        <v>4518</v>
       </c>
       <c r="H27" s="2">
-        <v>0.358</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="I27" s="2">
-        <v>0.905</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="J27" s="1">
-        <v>88.2564</v>
+        <v>89.449799999999996</v>
       </c>
       <c r="K27" s="1">
-        <v>4.459955</v>
+        <v>10.971018000000001</v>
       </c>
       <c r="L27" s="1">
-        <v>6.2564E-4</v>
+        <v>3.869436E-3</v>
       </c>
       <c r="M27" s="1">
-        <v>0.655861824</v>
+        <v>0.70098940499999995</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
@@ -1637,42 +1658,42 @@
         <v>7</v>
       </c>
       <c r="D28" s="1">
-        <v>15548.0</v>
+        <v>10455</v>
       </c>
       <c r="E28" s="1">
-        <v>36007.0</v>
+        <v>60930</v>
       </c>
       <c r="F28" s="1">
-        <v>1121.0</v>
+        <v>1059</v>
       </c>
       <c r="G28" s="1">
-        <v>3591.0</v>
+        <v>3495</v>
       </c>
       <c r="H28" s="2">
-        <v>0.275</v>
+        <v>0.316</v>
       </c>
       <c r="I28" s="2">
-        <v>0.869</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="J28" s="1">
-        <v>85.8814</v>
+        <v>89.356399999999994</v>
       </c>
       <c r="K28" s="1">
-        <v>10.269349</v>
+        <v>4.3013909999999997</v>
       </c>
       <c r="L28" s="1">
-        <v>0.001219434</v>
+        <v>0.90392915100000004</v>
       </c>
       <c r="M28" s="1">
-        <v>0.678145244</v>
+        <v>2.9394499999999999E-4</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -1681,86 +1702,86 @@
         <v>7</v>
       </c>
       <c r="D29" s="1">
-        <v>11771.0</v>
+        <v>15424</v>
       </c>
       <c r="E29" s="1">
-        <v>62224.0</v>
+        <v>42341</v>
       </c>
       <c r="F29" s="1">
-        <v>1366.0</v>
+        <v>1125</v>
       </c>
       <c r="G29" s="1">
-        <v>4518.0</v>
+        <v>3947</v>
       </c>
       <c r="H29" s="2">
-        <v>0.336</v>
+        <v>0.315</v>
       </c>
       <c r="I29" s="2">
-        <v>0.836</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="J29" s="1">
-        <v>89.4498</v>
+        <v>86.614999999999995</v>
       </c>
       <c r="K29" s="1">
-        <v>10.971018</v>
+        <v>3.3176290000000002</v>
       </c>
       <c r="L29" s="1">
-        <v>0.003869436</v>
+        <v>0.75811328</v>
       </c>
       <c r="M29" s="1">
-        <v>0.700989405</v>
+        <v>7.8720063000000007E-2</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1">
-        <v>6207.0</v>
+        <v>13893</v>
       </c>
       <c r="E30" s="1">
-        <v>70850.0</v>
+        <v>41278</v>
       </c>
       <c r="F30" s="1">
-        <v>1556.0</v>
+        <v>1245</v>
       </c>
       <c r="G30" s="1">
-        <v>5159.0</v>
+        <v>4016</v>
       </c>
       <c r="H30" s="2">
-        <v>0.408</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="I30" s="2">
-        <v>0.82</v>
+        <v>0.879</v>
       </c>
       <c r="J30" s="1">
-        <v>88.3693</v>
+        <v>89.032499999999999</v>
       </c>
       <c r="K30" s="1">
-        <v>16.04396</v>
+        <v>7.9736649999999996</v>
       </c>
       <c r="L30" s="1">
-        <v>0.8373294</v>
+        <v>0.79901104099999998</v>
       </c>
       <c r="M30" s="1">
-        <v>5.07185E-4</v>
+        <v>2.19459E-4</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
@@ -1769,86 +1790,86 @@
         <v>7</v>
       </c>
       <c r="D31" s="1">
-        <v>17773.0</v>
+        <v>11283</v>
       </c>
       <c r="E31" s="1">
-        <v>34264.0</v>
+        <v>58150</v>
       </c>
       <c r="F31" s="1">
-        <v>1184.0</v>
+        <v>1213</v>
       </c>
       <c r="G31" s="1">
-        <v>3827.0</v>
+        <v>3516</v>
       </c>
       <c r="H31" s="2">
-        <v>0.367</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="I31" s="2">
-        <v>0.87</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="J31" s="1">
-        <v>91.0424</v>
+        <v>83.847899999999996</v>
       </c>
       <c r="K31" s="1">
-        <v>5.47366</v>
+        <v>3.8896869999999999</v>
       </c>
       <c r="L31" s="1">
-        <v>0.001045213</v>
+        <v>7.4328579999999997E-3</v>
       </c>
       <c r="M31" s="1">
-        <v>0.646326134</v>
+        <v>0.716762487</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1">
-        <v>11519.0</v>
+        <v>14785</v>
       </c>
       <c r="E32" s="1">
-        <v>54294.0</v>
+        <v>50363</v>
       </c>
       <c r="F32" s="1">
-        <v>1623.0</v>
+        <v>1289</v>
       </c>
       <c r="G32" s="1">
-        <v>6382.0</v>
+        <v>4234</v>
       </c>
       <c r="H32" s="2">
-        <v>0.462</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="I32" s="2">
-        <v>0.903</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="J32" s="1">
-        <v>91.0524</v>
+        <v>88.146699999999996</v>
       </c>
       <c r="K32" s="1">
-        <v>9.012368</v>
+        <v>7.2307249999999996</v>
       </c>
       <c r="L32" s="1">
-        <v>0.760649002</v>
+        <v>2.144913E-3</v>
       </c>
       <c r="M32" s="1">
-        <v>4.54711E-4</v>
+        <v>0.73451580599999999</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>19</v>
@@ -1857,172 +1878,175 @@
         <v>7</v>
       </c>
       <c r="D33" s="1">
-        <v>14785.0</v>
+        <v>16639</v>
       </c>
       <c r="E33" s="1">
-        <v>50363.0</v>
+        <v>39002</v>
       </c>
       <c r="F33" s="1">
-        <v>1289.0</v>
+        <v>1177</v>
       </c>
       <c r="G33" s="1">
-        <v>4234.0</v>
+        <v>3540</v>
       </c>
       <c r="H33" s="2">
-        <v>0.278</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="I33" s="2">
-        <v>0.868</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="J33" s="1">
-        <v>88.1467</v>
+        <v>88.3489</v>
       </c>
       <c r="K33" s="1">
-        <v>7.230725</v>
+        <v>4.3177570000000003</v>
       </c>
       <c r="L33" s="1">
-        <v>0.002144913</v>
+        <v>1.003533E-3</v>
       </c>
       <c r="M33" s="1">
-        <v>0.734515806</v>
+        <v>0.750404984</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1">
-        <v>9262.0</v>
+        <v>15548</v>
       </c>
       <c r="E34" s="1">
-        <v>48561.0</v>
+        <v>36007</v>
       </c>
       <c r="F34" s="1">
-        <v>1517.0</v>
+        <v>1121</v>
       </c>
       <c r="G34" s="1">
-        <v>5872.0</v>
+        <v>3591</v>
       </c>
       <c r="H34" s="2">
-        <v>0.449</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I34" s="2">
-        <v>0.892</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="J34" s="1">
-        <v>92.5368</v>
+        <v>85.881399999999999</v>
       </c>
       <c r="K34" s="1">
-        <v>10.684683</v>
+        <v>10.269349</v>
       </c>
       <c r="L34" s="1">
-        <v>0.001219396</v>
+        <v>1.2194339999999999E-3</v>
       </c>
       <c r="M34" s="1">
-        <v>0.736346088</v>
+        <v>0.67814524399999998</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1">
-        <v>23360.0</v>
+        <v>15131</v>
       </c>
       <c r="E35" s="1">
-        <v>25766.0</v>
+        <v>37820</v>
       </c>
       <c r="F35" s="1">
-        <v>1240.0</v>
+        <v>1170</v>
       </c>
       <c r="G35" s="1">
-        <v>4126.0</v>
+        <v>3588</v>
       </c>
       <c r="H35" s="2">
-        <v>0.47</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="I35" s="2">
-        <v>0.914</v>
+        <v>0.86</v>
       </c>
       <c r="J35" s="1">
-        <v>89.9114</v>
+        <v>87.440600000000003</v>
       </c>
       <c r="K35" s="1">
-        <v>3.279267</v>
+        <v>9.8909970000000005</v>
       </c>
       <c r="L35" s="1">
-        <v>0.695436559</v>
+        <v>0.81989118800000005</v>
       </c>
       <c r="M35" s="1">
-        <v>1.76305E-4</v>
+        <v>8.0742800000000001E-4</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1">
-        <v>21270.0</v>
+        <v>4786</v>
       </c>
       <c r="E36" s="1">
-        <v>29889.0</v>
+        <v>125398</v>
       </c>
       <c r="F36" s="1">
-        <v>1093.0</v>
+        <v>1298</v>
       </c>
       <c r="G36" s="1">
-        <v>4266.0</v>
+        <v>4182</v>
       </c>
       <c r="H36" s="2">
-        <v>0.495</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="I36" s="2">
-        <v>0.898</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="J36" s="1">
-        <v>91.9212</v>
+        <v>86.532899999999998</v>
       </c>
       <c r="K36" s="1">
-        <v>4.133584</v>
+        <v>26.172671699999999</v>
       </c>
       <c r="L36" s="1">
-        <v>0.008611715</v>
+        <v>3.996912E-3</v>
       </c>
       <c r="M36" s="1">
-        <v>0.573360281</v>
+        <v>0.71629279999999995</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N38">
+    <sortCondition descending="1" ref="H1:H38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>